--- a/Output_Invoices.xlsx
+++ b/Output_Invoices.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Header-Invoices" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="S.C._Cubus_Arts_S.R.L.-" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="-" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="-1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="S.C._Cubus_Arts_S.R.L.-1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Header-Invoices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S.C._Cubus_Arts_S.R.L.-" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S.C._Cubus_Arts_S.R.L.-1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E.ON_Energie_Romania_SA-" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S.C._Cubus_Arts_S.R.L.-2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -102,7 +102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -154,7 +154,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -348,7 +348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -360,10 +360,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -441,6 +441,11 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>S.C._Cubus_Arts_S.R.L.-</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>S.C. Cubus Arts S.R.L.</t>
@@ -455,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>blabla-_1211_4141</t>
+          <t>S.C._Cubus_Arts_S.R.L.-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -472,17 +477,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
+          <t>E.ON_Energie_Romania_SA-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MS EON</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
+          <t>E.ON Energie Romania SA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>RO53BRDE270SV23904012700</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BRD</t>
         </is>
       </c>
     </row>
@@ -503,124 +518,8 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>S.C._Cubus_Arts_S.R.L.-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S.C. Cubus Arts S.R.L.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Strada Morii 198 Lugojoara, jud. Timis</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -630,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,51 +538,51 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Descrizioni (Denumirea produselor sau a serviciilor)</t>
+          <t>Description (Denumirea produselor sau a serviciilor)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unite (u.n.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quant. (Cant. )</t>
+          <t>gte (Cant.)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Prezzo/unit (escl. IVA) -EUR-  - (RON) -</t>
+          <t>Prix unite (exc. T.V.A.) -EUR-  - (RON) -</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Valore (escl. IVA) -EUR-  - (RON) -</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>IVA</t>
+          <t>Valeur (excl. T.V.A.) -EUR-  - (RON) -</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>importo IVA -EUR- - (RON) -</t>
+          <t>Montant T.V.A. -EUR- - (RON) -</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Totale -EUR- - (RON)-</t>
+          <t>Montant T.T.C. -EUR- = (RON) -</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ore |</t>
+          <t>Prestări servicii programare c ctc. 3482/0: '020</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -693,17 +592,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>185.00 (854.256)</t>
+          <t>185.00  (854.256)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15910.00 (73466.02)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>19.0</t>
+          <t>15910.00  (73466.02)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -713,11 +607,16 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18932.90 (87424.56)</t>
+          <t>18932.90  (87424.56)</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
@@ -725,7 +624,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ore |</t>
+          <t>ore</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -736,16 +635,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>53.20 (245.66)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -797,1167 +686,1993 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Subtotale -EUR- (Subtotaluri -RON-)</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16310.00 (75313.06)</t>
+          <t>Prestări servicii programare ct ctc. 3482/0: :020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>ore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3098.90 (14309.48)</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19408.90 (89622.54)</t>
+          <t>185.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15910.00  (73466.02)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3022.90  (13958.54)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>18932.90  (87424.56)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22.80 (105.28)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. cte 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22.80  (105.28)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mpe:     ro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total partiel -EUR- (Subtotaluri -RON-)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>97860.00  (451878. 34)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18593.40  (85856.88)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>116453.40  (537735.22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Ne</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Description (Denumirea produselor sau a serviciilor)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Unite (u.n.)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>gte (Cant.)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Prix unite (exc. T.V.A.) -EUR-  - (RON) -</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Valeur (excl. T.V.A.) -EUR-  - (RON) -</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Montant T.V.A. -EUR- - (RON) -</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Montant T.T.C. -EUR- = (RON) -</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Prestări servicii programare c ctc. 3482/0: '020</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>185.00  (854.256)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>15910.00  (73466.02)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>3022.90 (13958.54)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>18932.90  (87424.56)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>70.00 (323.232)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>333.20 (1538.58)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+    <row r="25">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Domeniu demo-impex.ro</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>buc</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>120.00 (554.112)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>120.00 (554.11)</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>22.80 (105.28)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>142.80 (659.39)</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+    <row r="26">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Prestări servicii programare ct ctc. 3482/0: :020</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>185.00</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>15910.00  (73466.02)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>3022.90  (13958.54)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>18932.90  (87424.56)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>70.00 (323.232)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>53.20 (245.66)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>333.20 (1538.58)</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Domeniu demo-impex.ro</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>buc</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>120.00 (554.112)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>120.00 (554.11)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>22.80 (105.28)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>142.80 (659.39)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
+    <row r="29">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>185.00 (854.256)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>15910.00 (73466.02)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>3022.90 (13958.54)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>18932.90 (87424.56)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+    <row r="30">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Servicii suport cf. cte 3482/13.02.2020</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>70.00 (323.232)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>53.20 (245.66)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>333.20 (1538.58)</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
+    <row r="31">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Domeniu demo-impex.ro</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>buc</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>120.00  (554.112)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>120.00 (554.11)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>142.80 (659.39)</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+    <row r="32">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>185.00 (854.256)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>15910.00 (73466.02)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>3022.90 (13958.54)</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>18932.90 (87424.56)</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+    <row r="33">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>70.00 (323.232)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>53.20 (245.66)</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>333.20 (1538.58)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+    <row r="34">
+      <c r="E34" t="inlineStr">
         <is>
           <t>120.00  (554.112)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>22.80  (105.28)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>142.80 (659.39)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
+    <row r="35">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>185.00 (854.256)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>15910.00 (73466.02)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>3022.90 (13958.54)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>18932.90 (87424.56)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+    <row r="36">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>70.00 (323.232)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>53.20 (245.66)</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>333.20 (1538.58)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+    <row r="37">
+      <c r="B37" t="inlineStr">
         <is>
           <t>mpe:     ro</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>120.00  (554.112)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>22.80</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>142.80</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+    <row r="38">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>86.0</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>185.00 (854.256)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>15910.00 (73466.02)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>3022.90 (13958.54)</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>18932.90 (87424.56)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+    <row r="39">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ore</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>70.00 (323.232)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>280.00 (1292.93)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>53.20 (245.66)</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>333.20 (1538.58)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+    <row r="40">
+      <c r="E40" t="inlineStr">
         <is>
           <t>120.00 (554.112)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>120.00 (554.11)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>142.80 (659.39)</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Total partiel -EUR- (Subtotaluri -RON-)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>97860.00  (451878. 34)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>18593.40  (85856.88)</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>116453.40  (537735.22)</t>
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Description (Denumirea produselor sau a serviciilor)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Unite (u.n.)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>gte (Cant.)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Prix unite (exc. T.V.A.) -EUR-  - (RON) -</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Valeur (excl. T.V.A.) -EUR-  - (RON) -</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Montant T.V.A. -EUR- - (RON) -</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Montant T.T.C. -EUR- = (RON) -</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare c ctc. 3482/0: '020</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>185.00  (854.256)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>15910.00  (73466.02)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>18932.90  (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>22.80 (105.28)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare ct ctc. 3482/0: :020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>185.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>15910.00  (73466.02)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>3022.90  (13958.54)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>18932.90  (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>22.80 (105.28)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. cte 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>22.80  (105.28)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>mpe:     ro</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Total partiel -EUR- (Subtotaluri -RON-)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>97860.00  (451878. 34)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18593.40  (85856.88)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>116453.40  (537735.22)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Descrizioni (Denumirea produselor sau a serviciilor)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Quant. (Cant. )</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Prezzo/unit (escl. IVA) -EUR-  - (RON) -</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Valore (escl. IVA) -EUR-  - (RON) -</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>IVA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>importo IVA -EUR- - (RON) -</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Totale -EUR- - (RON)-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ore |</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>185.00 (854.256)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15910.00 (73466.02)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3022.90 (13958.54)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>18932.90 (87424.56)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ore |</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.00 (323.232)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>280.00 (1292.93)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>53.20 (245.66)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>333.20 (1538.58)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Domeniu demo-impex.ro</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>buc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>120.00 (554.112)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>120.00 (554.11)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>22.80 (105.28)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>142.80 (659.39)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Subtotale -EUR- (Subtotaluri -RON-)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16310.00 (75313.06)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3098.90 (14309.48)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>19408.90 (89622.54)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Descrizioni (Denumirea produselor sau a serviciilor)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Quant. (Cant. )</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Prezzo/unit (escl. IVA) -EUR-  - (RON) -</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Valore (escl. IVA) -EUR-  - (RON) -</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>IVA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>importo IVA -EUR- - (RON) -</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Totale -EUR- - (RON)-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ore |</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>185.00 (854.256)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>15910.00 (73466.02)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>3022.90 (13958.54)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>18932.90 (87424.56)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ore |</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>70.00 (323.232)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>280.00 (1292.93)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>53.20 (245.66)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>333.20 (1538.58)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Domeniu demo-impex.ro</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>buc</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>120.00 (554.112)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>120.00 (554.11)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>22.80 (105.28)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>142.80 (659.39)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Subtotale -EUR- (Subtotaluri -RON-)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>16310.00 (75313.06)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3098.90 (14309.48)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19408.90 (89622.54)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1971,7 +2686,721 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ne</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Description (Denumirea produselor sau a serviciilor)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unite (u.n.)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>gte (Cant.)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Prix unite (exc. T.V.A.) -EUR-  - (RON) -</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Valeur (excl. T.V.A.) -EUR-  - (RON) -</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Montant T.V.A. -EUR- - (RON) -</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Montant T.T.C. -EUR- = (RON) -</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare c ctc. 3482/0: '020</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>185.00  (854.256)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15910.00  (73466.02)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>18932.90  (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22.80 (105.28)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare ct ctc. 3482/0: :020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>185.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15910.00  (73466.02)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3022.90  (13958.54)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>18932.90  (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>22.80 (105.28)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. cte 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Domeniu demo-impex.ro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>buc</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22.80  (105.28)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mpe:     ro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>120.00  (554.112)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>142.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Prestări servicii programare cf. ctc. 3482/03.02.2020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>185.00 (854.256)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15910.00 (73466.02)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3022.90 (13958.54)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>18932.90 (87424.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Servicii suport cf. ctc. 3482/13.02.2020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ore</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.00 (323.232)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>280.00 (1292.93)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>53.20 (245.66)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>333.20 (1538.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>120.00 (554.112)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>120.00 (554.11)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>142.80 (659.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total partiel -EUR- (Subtotaluri -RON-)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>97860.00  (451878. 34)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18593.40  (85856.88)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>116453.40  (537735.22)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1989,6 +3418,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>